--- a/config_Release/fish3d_task_config.xlsx
+++ b/config_Release/fish3d_task_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="29">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -109,6 +109,9 @@
     <t>3dby_icon_yu47</t>
   </si>
   <si>
+    <t>3dby_icon_yu29</t>
+  </si>
+  <si>
     <t>3dby_icon_yu35</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -121,37 +124,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_yu29</t>
-  </si>
-  <si>
     <t>3dby_icon_yu22</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +198,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -289,6 +268,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -575,7 +557,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F37"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,7 +607,7 @@
         <v>20300</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>9</v>
@@ -634,7 +616,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -648,7 +630,7 @@
         <v>20301</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
@@ -657,7 +639,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5">
         <v>2</v>
@@ -671,7 +653,7 @@
         <v>20302</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -680,7 +662,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="5">
         <v>3</v>
@@ -694,7 +676,7 @@
         <v>20303</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -703,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I5" s="5">
         <v>4</v>
@@ -717,7 +699,7 @@
         <v>20304</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -740,7 +722,7 @@
         <v>20305</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -763,7 +745,7 @@
         <v>20306</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -771,7 +753,7 @@
       <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="5">
@@ -786,7 +768,7 @@
         <v>20307</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -794,7 +776,7 @@
       <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="5">
@@ -809,7 +791,7 @@
         <v>20308</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -832,7 +814,7 @@
         <v>20400</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -841,7 +823,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I11" s="5">
         <v>10</v>
@@ -855,7 +837,7 @@
         <v>20401</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -864,7 +846,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I12" s="5">
         <v>11</v>
@@ -878,7 +860,7 @@
         <v>20402</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>12</v>
@@ -887,7 +869,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I13" s="5">
         <v>12</v>
@@ -901,7 +883,7 @@
         <v>20403</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>12</v>
@@ -910,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I14" s="5">
         <v>13</v>
@@ -924,7 +906,7 @@
         <v>20404</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>12</v>
@@ -947,7 +929,7 @@
         <v>20405</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>12</v>
@@ -970,7 +952,7 @@
         <v>20406</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>12</v>
@@ -978,7 +960,7 @@
       <c r="E17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="5">
@@ -993,7 +975,7 @@
         <v>20407</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>12</v>
@@ -1001,7 +983,7 @@
       <c r="E18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="5">
@@ -1016,7 +998,7 @@
         <v>20408</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>12</v>
@@ -1039,7 +1021,7 @@
         <v>20500</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>13</v>
@@ -1048,7 +1030,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I20" s="5">
         <v>19</v>
@@ -1062,7 +1044,7 @@
         <v>20501</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
@@ -1071,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I21" s="5">
         <v>20</v>
@@ -1085,7 +1067,7 @@
         <v>20502</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>15</v>
@@ -1094,7 +1076,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I22" s="5">
         <v>21</v>
@@ -1108,7 +1090,7 @@
         <v>20503</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>15</v>
@@ -1117,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I23" s="5">
         <v>22</v>
@@ -1131,7 +1113,7 @@
         <v>20504</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>15</v>
@@ -1154,7 +1136,7 @@
         <v>20505</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>15</v>
@@ -1177,7 +1159,7 @@
         <v>20506</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>15</v>
@@ -1185,7 +1167,7 @@
       <c r="E26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="5">
@@ -1200,7 +1182,7 @@
         <v>20507</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>15</v>
@@ -1208,7 +1190,7 @@
       <c r="E27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="5">
@@ -1223,7 +1205,7 @@
         <v>20508</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>15</v>
@@ -1246,7 +1228,7 @@
         <v>20600</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>16</v>
@@ -1255,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I29" s="5">
         <v>28</v>
@@ -1269,7 +1251,7 @@
         <v>20601</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>17</v>
@@ -1278,7 +1260,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I30" s="5">
         <v>29</v>
@@ -1292,7 +1274,7 @@
         <v>20602</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>18</v>
@@ -1301,7 +1283,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I31" s="5">
         <v>30</v>
@@ -1315,7 +1297,7 @@
         <v>20603</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>18</v>
@@ -1324,7 +1306,7 @@
         <v>19</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I32" s="5">
         <v>31</v>
@@ -1338,7 +1320,7 @@
         <v>20604</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>18</v>
@@ -1361,7 +1343,7 @@
         <v>20605</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>18</v>
@@ -1384,7 +1366,7 @@
         <v>20606</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>18</v>
@@ -1392,7 +1374,7 @@
       <c r="E35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="5">
@@ -1407,7 +1389,7 @@
         <v>20607</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>18</v>
@@ -1415,7 +1397,7 @@
       <c r="E36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I36" s="5">
@@ -1430,7 +1412,7 @@
         <v>20608</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>18</v>
@@ -1448,5 +1430,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/fish3d_task_config.xlsx
+++ b/config_Release/fish3d_task_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -38,10 +38,6 @@
   </si>
   <si>
     <t>desc|任务描述（使用&lt;color=#FCF280&gt;100&lt;/color&gt;及以上炮捕获）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_image|图标名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -94,37 +90,6 @@
   </si>
   <si>
     <t>使用任意炮捕获</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu43</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu47</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu29</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,12 +163,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -266,12 +225,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -554,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,10 +520,10 @@
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
     <col min="5" max="5" width="46.25" style="5" customWidth="1"/>
-    <col min="6" max="9" width="25.125" customWidth="1"/>
+    <col min="6" max="8" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,14 +545,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -607,22 +557,19 @@
         <v>20300</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="5">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -630,22 +577,19 @@
         <v>20301</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="5">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -653,22 +597,19 @@
         <v>20302</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="5">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -676,22 +617,19 @@
         <v>20303</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="5">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -699,22 +637,19 @@
         <v>20304</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="5">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -722,22 +657,19 @@
         <v>20305</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="5">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -745,22 +677,19 @@
         <v>20306</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="5">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -768,22 +697,19 @@
         <v>20307</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="5">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -791,22 +717,19 @@
         <v>20308</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="5">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -814,22 +737,19 @@
         <v>20400</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="5">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -837,22 +757,19 @@
         <v>20401</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="5">
         <v>11</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -860,22 +777,19 @@
         <v>20402</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="5">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -883,22 +797,19 @@
         <v>20403</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="5">
+        <v>18</v>
+      </c>
+      <c r="H14" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -906,22 +817,19 @@
         <v>20404</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="5">
+        <v>18</v>
+      </c>
+      <c r="H15" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -929,22 +837,19 @@
         <v>20405</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="5">
+        <v>18</v>
+      </c>
+      <c r="H16" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -952,22 +857,19 @@
         <v>20406</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="5">
+        <v>18</v>
+      </c>
+      <c r="H17" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -975,22 +877,19 @@
         <v>20407</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="5">
+        <v>18</v>
+      </c>
+      <c r="H18" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -998,22 +897,19 @@
         <v>20408</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="H19" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1021,22 +917,19 @@
         <v>20500</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5">
         <v>19</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1044,22 +937,19 @@
         <v>20501</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="5">
+        <v>18</v>
+      </c>
+      <c r="H21" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1067,22 +957,19 @@
         <v>20502</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="5">
+        <v>18</v>
+      </c>
+      <c r="H22" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1090,22 +977,19 @@
         <v>20503</v>
       </c>
       <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="5">
+        <v>18</v>
+      </c>
+      <c r="H23" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1113,22 +997,19 @@
         <v>20504</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="5">
+        <v>18</v>
+      </c>
+      <c r="H24" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1136,22 +1017,19 @@
         <v>20505</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="5">
+        <v>18</v>
+      </c>
+      <c r="H25" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1159,22 +1037,19 @@
         <v>20506</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="5">
+        <v>18</v>
+      </c>
+      <c r="H26" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1182,22 +1057,19 @@
         <v>20507</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="5">
+        <v>18</v>
+      </c>
+      <c r="H27" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1205,22 +1077,19 @@
         <v>20508</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="5">
+        <v>18</v>
+      </c>
+      <c r="H28" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1228,22 +1097,19 @@
         <v>20600</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="5">
+        <v>18</v>
+      </c>
+      <c r="H29" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1251,22 +1117,19 @@
         <v>20601</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="5">
+        <v>18</v>
+      </c>
+      <c r="H30" s="5">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1274,22 +1137,19 @@
         <v>20602</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="5">
+        <v>18</v>
+      </c>
+      <c r="H31" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1297,22 +1157,19 @@
         <v>20603</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="5">
+        <v>18</v>
+      </c>
+      <c r="H32" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1320,22 +1177,19 @@
         <v>20604</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="5">
+        <v>18</v>
+      </c>
+      <c r="H33" s="5">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1343,22 +1197,19 @@
         <v>20605</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="5">
+        <v>18</v>
+      </c>
+      <c r="H34" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1366,22 +1217,19 @@
         <v>20606</v>
       </c>
       <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="E35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="5">
+        <v>18</v>
+      </c>
+      <c r="H35" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1389,22 +1237,19 @@
         <v>20607</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="5">
+        <v>18</v>
+      </c>
+      <c r="H36" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1412,18 +1257,15 @@
         <v>20608</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="5">
+        <v>18</v>
+      </c>
+      <c r="H37" s="5">
         <v>36</v>
       </c>
     </row>

--- a/config_Release/fish3d_task_config.xlsx
+++ b/config_Release/fish3d_task_config.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="115">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -90,6 +91,378 @@
   </si>
   <si>
     <t>使用任意炮捕获</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>line|行号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|任务ID，和服务器的ID对应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name|任务名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|任务描述（使用&lt;color=#FCF280&gt;100&lt;/color&gt;及以上炮捕获）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_image|图标名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_image|奖励图标名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_value|奖励值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort|排序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用任意炮捕获</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_1</t>
+  </si>
+  <si>
+    <t>com_icon_yb</t>
+  </si>
+  <si>
+    <t>渔场1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用任意炮捕获</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用任意炮捕获</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用任意炮捕获</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_3</t>
+  </si>
+  <si>
+    <t>com_award_icon_money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_4</t>
+  </si>
+  <si>
+    <t>com_award_icon_money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_5</t>
+  </si>
+  <si>
+    <t>bk_fish_6</t>
+  </si>
+  <si>
+    <t>bk_fish_7</t>
+  </si>
+  <si>
+    <t>bk_fish_8</t>
+  </si>
+  <si>
+    <t>bk_fish_9</t>
+  </si>
+  <si>
+    <t>bk_fish_10</t>
+  </si>
+  <si>
+    <t>bk_fish_11</t>
+  </si>
+  <si>
+    <t>bk_fish_12</t>
+  </si>
+  <si>
+    <t>渔场2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用任意炮捕获</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_fish_15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +513,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +543,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -224,6 +610,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,7 +958,7 @@
         <v>20300</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
@@ -577,7 +978,7 @@
         <v>20301</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
@@ -597,7 +998,7 @@
         <v>20302</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>9</v>
@@ -617,7 +1018,7 @@
         <v>20303</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
@@ -637,7 +1038,7 @@
         <v>20304</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
@@ -657,7 +1058,7 @@
         <v>20305</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>9</v>
@@ -677,7 +1078,7 @@
         <v>20306</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>9</v>
@@ -697,7 +1098,7 @@
         <v>20307</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>9</v>
@@ -717,7 +1118,7 @@
         <v>20308</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -737,7 +1138,7 @@
         <v>20400</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -757,7 +1158,7 @@
         <v>20401</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
@@ -777,7 +1178,7 @@
         <v>20402</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -797,7 +1198,7 @@
         <v>20403</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -817,7 +1218,7 @@
         <v>20404</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>11</v>
@@ -837,7 +1238,7 @@
         <v>20405</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>11</v>
@@ -857,7 +1258,7 @@
         <v>20406</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>11</v>
@@ -877,7 +1278,7 @@
         <v>20407</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>11</v>
@@ -897,7 +1298,7 @@
         <v>20408</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>11</v>
@@ -917,7 +1318,7 @@
         <v>20500</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>12</v>
@@ -937,7 +1338,7 @@
         <v>20501</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>13</v>
@@ -957,7 +1358,7 @@
         <v>20502</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>14</v>
@@ -977,7 +1378,7 @@
         <v>20503</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>14</v>
@@ -997,7 +1398,7 @@
         <v>20504</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>14</v>
@@ -1017,7 +1418,7 @@
         <v>20505</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>14</v>
@@ -1037,7 +1438,7 @@
         <v>20506</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>14</v>
@@ -1057,7 +1458,7 @@
         <v>20507</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>14</v>
@@ -1077,7 +1478,7 @@
         <v>20508</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>14</v>
@@ -1097,7 +1498,7 @@
         <v>20600</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>15</v>
@@ -1117,7 +1518,7 @@
         <v>20601</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>16</v>
@@ -1137,7 +1538,7 @@
         <v>20602</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>17</v>
@@ -1157,7 +1558,7 @@
         <v>20603</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>17</v>
@@ -1177,7 +1578,7 @@
         <v>20604</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>17</v>
@@ -1197,7 +1598,7 @@
         <v>20605</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>17</v>
@@ -1217,7 +1618,7 @@
         <v>20606</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>17</v>
@@ -1237,7 +1638,7 @@
         <v>20607</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>17</v>
@@ -1257,7 +1658,7 @@
         <v>20608</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>17</v>
@@ -1268,6 +1669,6166 @@
       <c r="H37" s="5">
         <v>36</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K221"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="46.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="24.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22" style="9" customWidth="1"/>
+    <col min="10" max="10" width="23.875" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="7">
+        <v>106</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>10001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="7">
+        <v>159</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>10002</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7">
+        <v>212</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>10003</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7">
+        <v>106</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>10004</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>212</v>
+      </c>
+      <c r="I6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10005</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7">
+        <v>318</v>
+      </c>
+      <c r="I7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>10006</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7">
+        <v>132</v>
+      </c>
+      <c r="I8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>10007</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>265</v>
+      </c>
+      <c r="I9" s="9">
+        <v>8</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>10008</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7">
+        <v>397</v>
+      </c>
+      <c r="I10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10009</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7">
+        <v>212</v>
+      </c>
+      <c r="I11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>10010</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>424</v>
+      </c>
+      <c r="I12" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>10011</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="7">
+        <v>636</v>
+      </c>
+      <c r="I13" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>10012</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="7">
+        <v>318</v>
+      </c>
+      <c r="I14" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>10013</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>556</v>
+      </c>
+      <c r="I15" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>10014</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="7">
+        <v>795</v>
+      </c>
+      <c r="I16" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>10015</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="7">
+        <v>424</v>
+      </c>
+      <c r="I17" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>10016</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>636</v>
+      </c>
+      <c r="I18" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>10017</v>
+      </c>
+      <c r="C19" s="4">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="7">
+        <v>848</v>
+      </c>
+      <c r="I19" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>10018</v>
+      </c>
+      <c r="C20" s="4">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="7">
+        <v>477</v>
+      </c>
+      <c r="I20" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>10019</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>795</v>
+      </c>
+      <c r="I21" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>10020</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1272</v>
+      </c>
+      <c r="I22" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
+        <v>10021</v>
+      </c>
+      <c r="C23" s="4">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="7">
+        <v>636</v>
+      </c>
+      <c r="I23" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7">
+        <v>10022</v>
+      </c>
+      <c r="C24" s="4">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1060</v>
+      </c>
+      <c r="I24" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7">
+        <v>10023</v>
+      </c>
+      <c r="C25" s="4">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1484</v>
+      </c>
+      <c r="I25" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7">
+        <v>10024</v>
+      </c>
+      <c r="C26" s="4">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="7">
+        <v>795</v>
+      </c>
+      <c r="I26" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7">
+        <v>10025</v>
+      </c>
+      <c r="C27" s="4">
+        <v>9</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1060</v>
+      </c>
+      <c r="I27" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7">
+        <v>10026</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1590</v>
+      </c>
+      <c r="I28" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7">
+        <v>10027</v>
+      </c>
+      <c r="C29" s="4">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="7">
+        <v>954</v>
+      </c>
+      <c r="I29" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7">
+        <v>10028</v>
+      </c>
+      <c r="C30" s="4">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1272</v>
+      </c>
+      <c r="I30" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7">
+        <v>10029</v>
+      </c>
+      <c r="C31" s="4">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1590</v>
+      </c>
+      <c r="I31" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7">
+        <v>10030</v>
+      </c>
+      <c r="C32" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1113</v>
+      </c>
+      <c r="I32" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7">
+        <v>10031</v>
+      </c>
+      <c r="C33" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1484</v>
+      </c>
+      <c r="I33" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7">
+        <v>10032</v>
+      </c>
+      <c r="C34" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1855</v>
+      </c>
+      <c r="I34" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7">
+        <v>10033</v>
+      </c>
+      <c r="C35" s="4">
+        <v>12</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1060</v>
+      </c>
+      <c r="I35" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7">
+        <v>10034</v>
+      </c>
+      <c r="C36" s="4">
+        <v>12</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1590</v>
+      </c>
+      <c r="I36" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7">
+        <v>10035</v>
+      </c>
+      <c r="C37" s="4">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="7">
+        <v>2120</v>
+      </c>
+      <c r="I37" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7">
+        <v>10036</v>
+      </c>
+      <c r="C38" s="4">
+        <v>14</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="7">
+        <v>848</v>
+      </c>
+      <c r="I38" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7">
+        <v>10037</v>
+      </c>
+      <c r="C39" s="4">
+        <v>14</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1272</v>
+      </c>
+      <c r="I39" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7">
+        <v>10038</v>
+      </c>
+      <c r="C40" s="4">
+        <v>14</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1696</v>
+      </c>
+      <c r="I40" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7">
+        <v>10039</v>
+      </c>
+      <c r="C41" s="4">
+        <v>15</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1060</v>
+      </c>
+      <c r="I41" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7">
+        <v>10040</v>
+      </c>
+      <c r="C42" s="4">
+        <v>15</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1590</v>
+      </c>
+      <c r="I42" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7">
+        <v>10041</v>
+      </c>
+      <c r="C43" s="4">
+        <v>15</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="7">
+        <v>2120</v>
+      </c>
+      <c r="I43" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7">
+        <v>10042</v>
+      </c>
+      <c r="C44" s="4">
+        <v>16</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="7">
+        <v>636</v>
+      </c>
+      <c r="I44" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7">
+        <v>10043</v>
+      </c>
+      <c r="C45" s="4">
+        <v>16</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1272</v>
+      </c>
+      <c r="I45" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7">
+        <v>10044</v>
+      </c>
+      <c r="C46" s="4">
+        <v>16</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1908</v>
+      </c>
+      <c r="I46" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7">
+        <v>10045</v>
+      </c>
+      <c r="C47" s="4">
+        <v>17</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="7">
+        <v>742</v>
+      </c>
+      <c r="I47" s="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7">
+        <v>10046</v>
+      </c>
+      <c r="C48" s="4">
+        <v>17</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1484</v>
+      </c>
+      <c r="I48" s="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7">
+        <v>10047</v>
+      </c>
+      <c r="C49" s="4">
+        <v>18</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1060</v>
+      </c>
+      <c r="I49" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7">
+        <v>10048</v>
+      </c>
+      <c r="C50" s="4">
+        <v>18</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="7">
+        <v>2120</v>
+      </c>
+      <c r="I50" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7">
+        <v>10049</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I51" s="9">
+        <v>50</v>
+      </c>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7">
+        <v>10050</v>
+      </c>
+      <c r="C52" s="4">
+        <v>2</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I52" s="9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7">
+        <v>10051</v>
+      </c>
+      <c r="C53" s="4">
+        <v>3</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I53" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7">
+        <v>10052</v>
+      </c>
+      <c r="C54" s="4">
+        <v>4</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I54" s="9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7">
+        <v>10053</v>
+      </c>
+      <c r="C55" s="4">
+        <v>5</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I55" s="9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7">
+        <v>10054</v>
+      </c>
+      <c r="C56" s="4">
+        <v>6</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="I56" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7">
+        <v>10055</v>
+      </c>
+      <c r="C57" s="4">
+        <v>7</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="I57" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7">
+        <v>10056</v>
+      </c>
+      <c r="C58" s="4">
+        <v>8</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="I58" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7">
+        <v>10057</v>
+      </c>
+      <c r="C59" s="4">
+        <v>9</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I59" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7">
+        <v>10058</v>
+      </c>
+      <c r="C60" s="4">
+        <v>10</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I60" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7">
+        <v>10059</v>
+      </c>
+      <c r="C61" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I61" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7">
+        <v>10060</v>
+      </c>
+      <c r="C62" s="4">
+        <v>12</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I62" s="9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7">
+        <v>10061</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="11">
+        <v>220</v>
+      </c>
+      <c r="I63" s="9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7">
+        <v>10062</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" s="11">
+        <v>330</v>
+      </c>
+      <c r="I64" s="9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7">
+        <v>10063</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="11">
+        <v>440</v>
+      </c>
+      <c r="I65" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7">
+        <v>10064</v>
+      </c>
+      <c r="C66" s="4">
+        <v>2</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" s="11">
+        <v>220</v>
+      </c>
+      <c r="I66" s="9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7">
+        <v>10065</v>
+      </c>
+      <c r="C67" s="4">
+        <v>2</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="11">
+        <v>440</v>
+      </c>
+      <c r="I67" s="9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7">
+        <v>10066</v>
+      </c>
+      <c r="C68" s="4">
+        <v>2</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" s="11">
+        <v>660</v>
+      </c>
+      <c r="I68" s="9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7">
+        <v>10067</v>
+      </c>
+      <c r="C69" s="4">
+        <v>3</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="11">
+        <v>275</v>
+      </c>
+      <c r="I69" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7">
+        <v>10068</v>
+      </c>
+      <c r="C70" s="4">
+        <v>3</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" s="11">
+        <v>550</v>
+      </c>
+      <c r="I70" s="9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7">
+        <v>10069</v>
+      </c>
+      <c r="C71" s="4">
+        <v>3</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" s="11">
+        <v>825</v>
+      </c>
+      <c r="I71" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7">
+        <v>10070</v>
+      </c>
+      <c r="C72" s="4">
+        <v>4</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" s="11">
+        <v>440</v>
+      </c>
+      <c r="I72" s="9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7">
+        <v>10071</v>
+      </c>
+      <c r="C73" s="4">
+        <v>4</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" s="11">
+        <v>880</v>
+      </c>
+      <c r="I73" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7">
+        <v>10072</v>
+      </c>
+      <c r="C74" s="4">
+        <v>4</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" s="11">
+        <v>1320</v>
+      </c>
+      <c r="I74" s="9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7">
+        <v>10073</v>
+      </c>
+      <c r="C75" s="4">
+        <v>5</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" s="11">
+        <v>660</v>
+      </c>
+      <c r="I75" s="9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7">
+        <v>10074</v>
+      </c>
+      <c r="C76" s="4">
+        <v>5</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" s="11">
+        <v>1155</v>
+      </c>
+      <c r="I76" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7">
+        <v>10075</v>
+      </c>
+      <c r="C77" s="4">
+        <v>5</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" s="11">
+        <v>1650</v>
+      </c>
+      <c r="I77" s="9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="7">
+        <v>10076</v>
+      </c>
+      <c r="C78" s="4">
+        <v>6</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" s="11">
+        <v>880</v>
+      </c>
+      <c r="I78" s="9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7">
+        <v>10077</v>
+      </c>
+      <c r="C79" s="4">
+        <v>6</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="11">
+        <v>1320</v>
+      </c>
+      <c r="I79" s="9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7">
+        <v>10078</v>
+      </c>
+      <c r="C80" s="4">
+        <v>6</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="11">
+        <v>1760</v>
+      </c>
+      <c r="I80" s="9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7">
+        <v>10079</v>
+      </c>
+      <c r="C81" s="4">
+        <v>7</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="11">
+        <v>990</v>
+      </c>
+      <c r="I81" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7">
+        <v>10080</v>
+      </c>
+      <c r="C82" s="4">
+        <v>7</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H82" s="11">
+        <v>1650</v>
+      </c>
+      <c r="I82" s="9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7">
+        <v>10081</v>
+      </c>
+      <c r="C83" s="4">
+        <v>7</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" s="11">
+        <v>2640</v>
+      </c>
+      <c r="I83" s="9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7">
+        <v>10082</v>
+      </c>
+      <c r="C84" s="4">
+        <v>8</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H84" s="11">
+        <v>1320</v>
+      </c>
+      <c r="I84" s="9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7">
+        <v>10083</v>
+      </c>
+      <c r="C85" s="4">
+        <v>8</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" s="11">
+        <v>2200</v>
+      </c>
+      <c r="I85" s="9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="7">
+        <v>10084</v>
+      </c>
+      <c r="C86" s="4">
+        <v>8</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H86" s="11">
+        <v>3080</v>
+      </c>
+      <c r="I86" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="7">
+        <v>10085</v>
+      </c>
+      <c r="C87" s="4">
+        <v>9</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" s="11">
+        <v>1650</v>
+      </c>
+      <c r="I87" s="9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7">
+        <v>10086</v>
+      </c>
+      <c r="C88" s="4">
+        <v>9</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88" s="11">
+        <v>2200</v>
+      </c>
+      <c r="I88" s="9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7">
+        <v>10087</v>
+      </c>
+      <c r="C89" s="4">
+        <v>9</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" s="11">
+        <v>3300</v>
+      </c>
+      <c r="I89" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7">
+        <v>10088</v>
+      </c>
+      <c r="C90" s="4">
+        <v>10</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" s="11">
+        <v>1980</v>
+      </c>
+      <c r="I90" s="9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7">
+        <v>10089</v>
+      </c>
+      <c r="C91" s="4">
+        <v>10</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" s="11">
+        <v>2640</v>
+      </c>
+      <c r="I91" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7">
+        <v>10090</v>
+      </c>
+      <c r="C92" s="4">
+        <v>10</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" s="11">
+        <v>3300</v>
+      </c>
+      <c r="I92" s="9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7">
+        <v>10091</v>
+      </c>
+      <c r="C93" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H93" s="11">
+        <v>2310</v>
+      </c>
+      <c r="I93" s="9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="7">
+        <v>10092</v>
+      </c>
+      <c r="C94" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H94" s="11">
+        <v>3080</v>
+      </c>
+      <c r="I94" s="9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7">
+        <v>10093</v>
+      </c>
+      <c r="C95" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" s="11">
+        <v>3850</v>
+      </c>
+      <c r="I95" s="9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7">
+        <v>10094</v>
+      </c>
+      <c r="C96" s="4">
+        <v>12</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H96" s="11">
+        <v>2200</v>
+      </c>
+      <c r="I96" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="7">
+        <v>10095</v>
+      </c>
+      <c r="C97" s="4">
+        <v>12</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" s="11">
+        <v>3300</v>
+      </c>
+      <c r="I97" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="7">
+        <v>10096</v>
+      </c>
+      <c r="C98" s="4">
+        <v>12</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H98" s="11">
+        <v>4400</v>
+      </c>
+      <c r="I98" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="7">
+        <v>10097</v>
+      </c>
+      <c r="C99" s="4">
+        <v>14</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" s="11">
+        <v>1760</v>
+      </c>
+      <c r="I99" s="9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="7">
+        <v>10098</v>
+      </c>
+      <c r="C100" s="4">
+        <v>14</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H100" s="11">
+        <v>2640</v>
+      </c>
+      <c r="I100" s="9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7">
+        <v>10099</v>
+      </c>
+      <c r="C101" s="4">
+        <v>14</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" s="11">
+        <v>3520</v>
+      </c>
+      <c r="I101" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="7">
+        <v>10100</v>
+      </c>
+      <c r="C102" s="4">
+        <v>15</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H102" s="11">
+        <v>2200</v>
+      </c>
+      <c r="I102" s="9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="7">
+        <v>10101</v>
+      </c>
+      <c r="C103" s="4">
+        <v>15</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H103" s="11">
+        <v>3300</v>
+      </c>
+      <c r="I103" s="9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="7">
+        <v>10102</v>
+      </c>
+      <c r="C104" s="4">
+        <v>15</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H104" s="11">
+        <v>4400</v>
+      </c>
+      <c r="I104" s="9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="7">
+        <v>10103</v>
+      </c>
+      <c r="C105" s="4">
+        <v>16</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" s="11">
+        <v>1320</v>
+      </c>
+      <c r="I105" s="9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="7">
+        <v>10104</v>
+      </c>
+      <c r="C106" s="4">
+        <v>16</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" s="11">
+        <v>2640</v>
+      </c>
+      <c r="I106" s="9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="7">
+        <v>10105</v>
+      </c>
+      <c r="C107" s="4">
+        <v>16</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H107" s="11">
+        <v>3960</v>
+      </c>
+      <c r="I107" s="9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" s="7">
+        <v>10106</v>
+      </c>
+      <c r="C108" s="4">
+        <v>17</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" s="11">
+        <v>1540</v>
+      </c>
+      <c r="I108" s="9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="7">
+        <v>10107</v>
+      </c>
+      <c r="C109" s="4">
+        <v>17</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H109" s="11">
+        <v>3080</v>
+      </c>
+      <c r="I109" s="9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" s="7">
+        <v>10108</v>
+      </c>
+      <c r="C110" s="4">
+        <v>18</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H110" s="11">
+        <v>2200</v>
+      </c>
+      <c r="I110" s="9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="7">
+        <v>10109</v>
+      </c>
+      <c r="C111" s="4">
+        <v>18</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H111" s="11">
+        <v>4400</v>
+      </c>
+      <c r="I111" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="7">
+        <v>10110</v>
+      </c>
+      <c r="C112" s="4">
+        <v>1</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H112" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I112" s="9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="7">
+        <v>10111</v>
+      </c>
+      <c r="C113" s="4">
+        <v>2</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H113" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I113" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="7">
+        <v>10112</v>
+      </c>
+      <c r="C114" s="4">
+        <v>3</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H114" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I114" s="9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="7">
+        <v>10113</v>
+      </c>
+      <c r="C115" s="4">
+        <v>4</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H115" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="I115" s="9">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="7">
+        <v>10114</v>
+      </c>
+      <c r="C116" s="4">
+        <v>5</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H116" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="I116" s="9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="7">
+        <v>10115</v>
+      </c>
+      <c r="C117" s="4">
+        <v>6</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H117" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="I117" s="9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="7">
+        <v>10116</v>
+      </c>
+      <c r="C118" s="4">
+        <v>7</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H118" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I118" s="9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="7">
+        <v>10117</v>
+      </c>
+      <c r="C119" s="4">
+        <v>8</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H119" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I119" s="9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="7">
+        <v>10118</v>
+      </c>
+      <c r="C120" s="4">
+        <v>9</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H120" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I120" s="9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="7">
+        <v>10119</v>
+      </c>
+      <c r="C121" s="4">
+        <v>10</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H121" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I121" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="7">
+        <v>10120</v>
+      </c>
+      <c r="C122" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H122" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I122" s="9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="7">
+        <v>10121</v>
+      </c>
+      <c r="C123" s="4">
+        <v>12</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H123" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I123" s="9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="7">
+        <v>10122</v>
+      </c>
+      <c r="C124" s="4">
+        <v>6</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H124" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="I124" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="7">
+        <v>10123</v>
+      </c>
+      <c r="C125" s="4">
+        <v>6</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H125" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="I125" s="9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="7">
+        <v>10124</v>
+      </c>
+      <c r="C126" s="4">
+        <v>6</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H126" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="I126" s="9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="7">
+        <v>10125</v>
+      </c>
+      <c r="C127" s="4">
+        <v>7</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H127" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I127" s="9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="7">
+        <v>10126</v>
+      </c>
+      <c r="C128" s="4">
+        <v>7</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H128" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I128" s="9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="7">
+        <v>10127</v>
+      </c>
+      <c r="C129" s="4">
+        <v>7</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H129" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="I129" s="9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="7">
+        <v>10128</v>
+      </c>
+      <c r="C130" s="4">
+        <v>8</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H130" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="I130" s="9">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="7">
+        <v>10129</v>
+      </c>
+      <c r="C131" s="4">
+        <v>8</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H131" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I131" s="9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="7">
+        <v>10130</v>
+      </c>
+      <c r="C132" s="4">
+        <v>8</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H132" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I132" s="9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="7">
+        <v>10131</v>
+      </c>
+      <c r="C133" s="4">
+        <v>9</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H133" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I133" s="9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="7">
+        <v>10132</v>
+      </c>
+      <c r="C134" s="4">
+        <v>9</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H134" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I134" s="9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="7">
+        <v>10133</v>
+      </c>
+      <c r="C135" s="4">
+        <v>9</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H135" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I135" s="9">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="7">
+        <v>10134</v>
+      </c>
+      <c r="C136" s="4">
+        <v>10</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H136" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="I136" s="9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="7">
+        <v>10135</v>
+      </c>
+      <c r="C137" s="4">
+        <v>10</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H137" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="I137" s="9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="7">
+        <v>10136</v>
+      </c>
+      <c r="C138" s="4">
+        <v>10</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H138" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I138" s="9">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="7">
+        <v>10137</v>
+      </c>
+      <c r="C139" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H139" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="I139" s="9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="7">
+        <v>10138</v>
+      </c>
+      <c r="C140" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H140" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I140" s="9">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="7">
+        <v>10139</v>
+      </c>
+      <c r="C141" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H141" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="I141" s="9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="7">
+        <v>10140</v>
+      </c>
+      <c r="C142" s="4">
+        <v>12</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H142" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I142" s="9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="7">
+        <v>10141</v>
+      </c>
+      <c r="C143" s="4">
+        <v>12</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H143" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I143" s="9">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="7">
+        <v>10142</v>
+      </c>
+      <c r="C144" s="4">
+        <v>12</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H144" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I144" s="9">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="7">
+        <v>10143</v>
+      </c>
+      <c r="C145" s="4">
+        <v>14</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H145" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="I145" s="9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="7">
+        <v>10144</v>
+      </c>
+      <c r="C146" s="4">
+        <v>14</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H146" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="I146" s="9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="7">
+        <v>10145</v>
+      </c>
+      <c r="C147" s="4">
+        <v>14</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H147" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="I147" s="9">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="7">
+        <v>10146</v>
+      </c>
+      <c r="C148" s="4">
+        <v>15</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H148" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I148" s="9">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="7">
+        <v>10147</v>
+      </c>
+      <c r="C149" s="4">
+        <v>15</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H149" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I149" s="9">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="7">
+        <v>10148</v>
+      </c>
+      <c r="C150" s="4">
+        <v>15</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H150" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I150" s="9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="7">
+        <v>10149</v>
+      </c>
+      <c r="C151" s="4">
+        <v>16</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H151" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="I151" s="9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="7">
+        <v>10150</v>
+      </c>
+      <c r="C152" s="4">
+        <v>16</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H152" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="I152" s="9">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="7">
+        <v>10151</v>
+      </c>
+      <c r="C153" s="4">
+        <v>16</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H153" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="I153" s="9">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" s="7">
+        <v>10152</v>
+      </c>
+      <c r="C154" s="4">
+        <v>17</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H154" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I154" s="9">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="7">
+        <v>10153</v>
+      </c>
+      <c r="C155" s="4">
+        <v>17</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H155" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I155" s="9">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" s="7">
+        <v>10154</v>
+      </c>
+      <c r="C156" s="4">
+        <v>18</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H156" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I156" s="9">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="7">
+        <v>10155</v>
+      </c>
+      <c r="C157" s="4">
+        <v>18</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H157" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I157" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="7">
+        <v>10156</v>
+      </c>
+      <c r="C158" s="4">
+        <v>6</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H158" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I158" s="9">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="7">
+        <v>10157</v>
+      </c>
+      <c r="C159" s="4">
+        <v>6</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H159" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I159" s="9">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" s="7">
+        <v>10158</v>
+      </c>
+      <c r="C160" s="4">
+        <v>6</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H160" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="I160" s="9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="7">
+        <v>10159</v>
+      </c>
+      <c r="C161" s="4">
+        <v>7</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H161" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I161" s="9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" s="7">
+        <v>10160</v>
+      </c>
+      <c r="C162" s="4">
+        <v>7</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H162" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I162" s="9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="7">
+        <v>10161</v>
+      </c>
+      <c r="C163" s="4">
+        <v>7</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H163" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="I163" s="9">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="7">
+        <v>10162</v>
+      </c>
+      <c r="C164" s="4">
+        <v>8</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H164" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I164" s="9">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="7">
+        <v>10163</v>
+      </c>
+      <c r="C165" s="4">
+        <v>8</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H165" s="7">
+        <v>2</v>
+      </c>
+      <c r="I165" s="9">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" s="7">
+        <v>10164</v>
+      </c>
+      <c r="C166" s="4">
+        <v>8</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H166" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="I166" s="9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" s="7">
+        <v>10165</v>
+      </c>
+      <c r="C167" s="4">
+        <v>9</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H167" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I167" s="9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" s="7">
+        <v>10166</v>
+      </c>
+      <c r="C168" s="4">
+        <v>9</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H168" s="7">
+        <v>2</v>
+      </c>
+      <c r="I168" s="9">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" s="7">
+        <v>10167</v>
+      </c>
+      <c r="C169" s="4">
+        <v>9</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H169" s="7">
+        <v>3</v>
+      </c>
+      <c r="I169" s="9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" s="7">
+        <v>10168</v>
+      </c>
+      <c r="C170" s="4">
+        <v>10</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H170" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="I170" s="9">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <v>170</v>
+      </c>
+      <c r="B171" s="7">
+        <v>10169</v>
+      </c>
+      <c r="C171" s="4">
+        <v>10</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H171" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="I171" s="9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <v>171</v>
+      </c>
+      <c r="B172" s="7">
+        <v>10170</v>
+      </c>
+      <c r="C172" s="4">
+        <v>10</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H172" s="7">
+        <v>3</v>
+      </c>
+      <c r="I172" s="9">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" s="7">
+        <v>10171</v>
+      </c>
+      <c r="C173" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H173" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="I173" s="9">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <v>173</v>
+      </c>
+      <c r="B174" s="7">
+        <v>10172</v>
+      </c>
+      <c r="C174" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H174" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="I174" s="9">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" s="7">
+        <v>10173</v>
+      </c>
+      <c r="C175" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H175" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="I175" s="9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>175</v>
+      </c>
+      <c r="B176" s="7">
+        <v>10174</v>
+      </c>
+      <c r="C176" s="4">
+        <v>12</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H176" s="7">
+        <v>2</v>
+      </c>
+      <c r="I176" s="9">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" s="7">
+        <v>10175</v>
+      </c>
+      <c r="C177" s="4">
+        <v>12</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H177" s="7">
+        <v>3</v>
+      </c>
+      <c r="I177" s="9">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>177</v>
+      </c>
+      <c r="B178" s="7">
+        <v>10176</v>
+      </c>
+      <c r="C178" s="4">
+        <v>12</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H178" s="7">
+        <v>4</v>
+      </c>
+      <c r="I178" s="9">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" s="7">
+        <v>10177</v>
+      </c>
+      <c r="C179" s="4">
+        <v>14</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H179" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="I179" s="9">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
+        <v>179</v>
+      </c>
+      <c r="B180" s="7">
+        <v>10178</v>
+      </c>
+      <c r="C180" s="4">
+        <v>14</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H180" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="I180" s="9">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" s="7">
+        <v>10179</v>
+      </c>
+      <c r="C181" s="4">
+        <v>14</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H181" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="I181" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" s="7">
+        <v>10180</v>
+      </c>
+      <c r="C182" s="4">
+        <v>15</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H182" s="7">
+        <v>2</v>
+      </c>
+      <c r="I182" s="9">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" s="7">
+        <v>10181</v>
+      </c>
+      <c r="C183" s="4">
+        <v>15</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H183" s="7">
+        <v>3</v>
+      </c>
+      <c r="I183" s="9">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>183</v>
+      </c>
+      <c r="B184" s="7">
+        <v>10182</v>
+      </c>
+      <c r="C184" s="4">
+        <v>15</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H184" s="7">
+        <v>4</v>
+      </c>
+      <c r="I184" s="9">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" s="7">
+        <v>10183</v>
+      </c>
+      <c r="C185" s="4">
+        <v>16</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H185" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I185" s="9">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
+        <v>185</v>
+      </c>
+      <c r="B186" s="7">
+        <v>10184</v>
+      </c>
+      <c r="C186" s="4">
+        <v>16</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G186" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H186" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="I186" s="9">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
+        <v>186</v>
+      </c>
+      <c r="B187" s="7">
+        <v>10185</v>
+      </c>
+      <c r="C187" s="4">
+        <v>16</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H187" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="I187" s="9">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
+        <v>187</v>
+      </c>
+      <c r="B188" s="7">
+        <v>10186</v>
+      </c>
+      <c r="C188" s="4">
+        <v>17</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G188" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H188" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="I188" s="9">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <v>188</v>
+      </c>
+      <c r="B189" s="7">
+        <v>10187</v>
+      </c>
+      <c r="C189" s="4">
+        <v>17</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H189" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="I189" s="9">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
+        <v>189</v>
+      </c>
+      <c r="B190" s="7">
+        <v>10188</v>
+      </c>
+      <c r="C190" s="4">
+        <v>18</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H190" s="7">
+        <v>2</v>
+      </c>
+      <c r="I190" s="9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
+        <v>190</v>
+      </c>
+      <c r="B191" s="7">
+        <v>10189</v>
+      </c>
+      <c r="C191" s="4">
+        <v>18</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H191" s="7">
+        <v>4</v>
+      </c>
+      <c r="I191" s="9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="4">
+        <v>191</v>
+      </c>
+      <c r="B192" s="7">
+        <v>20000</v>
+      </c>
+      <c r="C192" s="4">
+        <v>5</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I192" s="4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
+        <v>192</v>
+      </c>
+      <c r="B193" s="7">
+        <v>20001</v>
+      </c>
+      <c r="C193" s="4">
+        <v>6</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I193" s="4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="4">
+        <v>193</v>
+      </c>
+      <c r="B194" s="7">
+        <v>20002</v>
+      </c>
+      <c r="C194" s="4">
+        <v>7</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I194" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="4">
+        <v>194</v>
+      </c>
+      <c r="B195" s="7">
+        <v>20003</v>
+      </c>
+      <c r="C195" s="4">
+        <v>8</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I195" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" s="4">
+        <v>195</v>
+      </c>
+      <c r="B196" s="7">
+        <v>20004</v>
+      </c>
+      <c r="C196" s="4">
+        <v>9</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I196" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" s="4">
+        <v>196</v>
+      </c>
+      <c r="B197" s="7">
+        <v>20005</v>
+      </c>
+      <c r="C197" s="4">
+        <v>10</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I197" s="4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" s="4">
+        <v>197</v>
+      </c>
+      <c r="B198" s="7">
+        <v>20006</v>
+      </c>
+      <c r="C198" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I198" s="4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" s="4">
+        <v>198</v>
+      </c>
+      <c r="B199" s="7">
+        <v>20007</v>
+      </c>
+      <c r="C199" s="4">
+        <v>14</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I199" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" s="4">
+        <v>199</v>
+      </c>
+      <c r="B200" s="7">
+        <v>20100</v>
+      </c>
+      <c r="C200" s="4">
+        <v>5</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I200" s="4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" s="4">
+        <v>200</v>
+      </c>
+      <c r="B201" s="7">
+        <v>20101</v>
+      </c>
+      <c r="C201" s="4">
+        <v>6</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I201" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" s="4">
+        <v>201</v>
+      </c>
+      <c r="B202" s="7">
+        <v>20102</v>
+      </c>
+      <c r="C202" s="4">
+        <v>7</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I202" s="4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" s="4">
+        <v>202</v>
+      </c>
+      <c r="B203" s="7">
+        <v>20103</v>
+      </c>
+      <c r="C203" s="4">
+        <v>8</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I203" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" s="4">
+        <v>203</v>
+      </c>
+      <c r="B204" s="7">
+        <v>20104</v>
+      </c>
+      <c r="C204" s="4">
+        <v>9</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I204" s="4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" s="4">
+        <v>204</v>
+      </c>
+      <c r="B205" s="7">
+        <v>20105</v>
+      </c>
+      <c r="C205" s="4">
+        <v>10</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I205" s="4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" s="4">
+        <v>205</v>
+      </c>
+      <c r="B206" s="7">
+        <v>20106</v>
+      </c>
+      <c r="C206" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I206" s="4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" s="4">
+        <v>206</v>
+      </c>
+      <c r="B207" s="7">
+        <v>20107</v>
+      </c>
+      <c r="C207" s="4">
+        <v>14</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I207" s="4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" s="4">
+        <v>207</v>
+      </c>
+      <c r="B208" s="7">
+        <v>20200</v>
+      </c>
+      <c r="C208" s="4">
+        <v>5</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I208" s="4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" s="4">
+        <v>208</v>
+      </c>
+      <c r="B209" s="7">
+        <v>20201</v>
+      </c>
+      <c r="C209" s="4">
+        <v>6</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I209" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" s="4">
+        <v>209</v>
+      </c>
+      <c r="B210" s="7">
+        <v>20202</v>
+      </c>
+      <c r="C210" s="4">
+        <v>7</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F210" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I210" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" s="4">
+        <v>210</v>
+      </c>
+      <c r="B211" s="7">
+        <v>20203</v>
+      </c>
+      <c r="C211" s="4">
+        <v>8</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I211" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" s="4">
+        <v>211</v>
+      </c>
+      <c r="B212" s="7">
+        <v>20204</v>
+      </c>
+      <c r="C212" s="4">
+        <v>9</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I212" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" s="4">
+        <v>212</v>
+      </c>
+      <c r="B213" s="7">
+        <v>20205</v>
+      </c>
+      <c r="C213" s="4">
+        <v>10</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I213" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="4">
+        <v>213</v>
+      </c>
+      <c r="B214" s="7">
+        <v>20206</v>
+      </c>
+      <c r="C214" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I214" s="4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="4">
+        <v>214</v>
+      </c>
+      <c r="B215" s="7">
+        <v>20207</v>
+      </c>
+      <c r="C215" s="4">
+        <v>14</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I215" s="4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B216" s="7"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="I216" s="4"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B217" s="7"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="8"/>
+      <c r="F217" s="8"/>
+      <c r="I217" s="4"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B218" s="7"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="8"/>
+      <c r="F218" s="8"/>
+      <c r="I218" s="4"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B219" s="7"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="8"/>
+      <c r="I219" s="4"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B220" s="7"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="8"/>
+      <c r="F220" s="8"/>
+      <c r="I220" s="4"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D221" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
